--- a/Data Dictionary.xlsx
+++ b/Data Dictionary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="148">
   <si>
     <t>Tabla</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>incidents</t>
+  </si>
+  <si>
+    <t>INT</t>
   </si>
   <si>
     <t>district</t>
@@ -1063,7 +1066,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D12" s="2">
         <v>10.0</v>
@@ -1077,7 +1080,7 @@
     </row>
     <row r="13">
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -1086,12 +1089,12 @@
         <v>50.0</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -1100,12 +1103,12 @@
         <v>300.0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
@@ -1114,12 +1117,12 @@
         <v>300.0</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
@@ -1128,15 +1131,15 @@
         <v>10.0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D17" s="2">
         <v>10.0</v>
@@ -1145,20 +1148,20 @@
         <v>13</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D21" s="2">
         <v>10.0</v>
@@ -1167,12 +1170,12 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
@@ -1182,12 +1185,12 @@
       </c>
       <c r="E22" s="2"/>
       <c r="G22" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
@@ -1196,12 +1199,12 @@
         <v>10.0</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
@@ -1210,15 +1213,15 @@
         <v>100.0</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
@@ -1227,15 +1230,15 @@
         <v>50.0</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
@@ -1244,12 +1247,12 @@
         <v>20.0</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
@@ -1258,15 +1261,15 @@
         <v>50.0</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
@@ -1275,15 +1278,15 @@
         <v>50.0</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D29" s="2">
         <v>10.0</v>
@@ -1292,20 +1295,20 @@
         <v>13</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D32" s="2">
         <v>10.0</v>
@@ -1314,12 +1317,12 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
@@ -1328,12 +1331,12 @@
         <v>50.0</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
@@ -1342,13 +1345,13 @@
         <v>20.0</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H34" s="5"/>
     </row>
     <row r="35">
       <c r="B35" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
@@ -1357,7 +1360,7 @@
         <v>50.0</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1407,52 +1410,52 @@
         <v>15</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>20</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T1" s="7"/>
       <c r="U1" s="7"/>
@@ -1467,34 +1470,34 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L2" s="8">
         <v>426.0</v>
@@ -1503,13 +1506,13 @@
         <v>2.0</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q2" s="8">
         <v>21214.0</v>
@@ -1526,34 +1529,34 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L3" s="8">
         <v>742.0</v>
@@ -1562,13 +1565,13 @@
         <v>7.0</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q3" s="8">
         <v>21217.0</v>
@@ -1585,34 +1588,34 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L4" s="8">
         <v>131.0</v>
@@ -1621,13 +1624,13 @@
         <v>11.0</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q4" s="8">
         <v>21217.0</v>
@@ -1678,70 +1681,70 @@
     <row r="1">
       <c r="A1" s="6"/>
       <c r="B1" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -1780,52 +1783,52 @@
         <v>15</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
@@ -1840,34 +1843,34 @@
         <v>1.0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M4" s="8">
         <v>426.0</v>
@@ -1876,13 +1879,13 @@
         <v>2.0</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R4" s="8">
         <v>21214.0</v>
@@ -1900,34 +1903,34 @@
         <v>2.0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M5" s="8">
         <v>742.0</v>
@@ -1936,13 +1939,13 @@
         <v>7.0</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R5" s="8">
         <v>21217.0</v>
@@ -1959,34 +1962,34 @@
         <v>3.0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M6" s="8">
         <v>131.0</v>
@@ -1995,13 +1998,13 @@
         <v>11.0</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R6" s="8">
         <v>21217.0</v>
@@ -2053,128 +2056,128 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="12"/>
       <c r="B2" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="H2" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>132</v>
-      </c>
       <c r="I2" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>132</v>
-      </c>
       <c r="K2" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="U2" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15"/>
       <c r="B3" s="15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2201,11 +2204,11 @@
     <row r="4">
       <c r="A4" s="9"/>
       <c r="B4" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -2245,52 +2248,52 @@
         <v>15</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
@@ -2305,34 +2308,34 @@
         <v>1.0</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N6" s="8">
         <v>426.0</v>
@@ -2341,13 +2344,13 @@
         <v>2.0</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S6" s="8">
         <v>21214.0</v>
@@ -2366,34 +2369,34 @@
         <v>2.0</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N7" s="8">
         <v>742.0</v>
@@ -2402,13 +2405,13 @@
         <v>7.0</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S7" s="8">
         <v>21217.0</v>
@@ -2425,34 +2428,34 @@
         <v>3.0</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N8" s="8">
         <v>131.0</v>
@@ -2461,13 +2464,13 @@
         <v>11.0</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S8" s="8">
         <v>21217.0</v>
@@ -2482,11 +2485,11 @@
     <row r="12">
       <c r="A12" s="9"/>
       <c r="B12" s="16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -2508,19 +2511,19 @@
         <v>15</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>20</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K13" s="19"/>
     </row>
@@ -2530,31 +2533,31 @@
         <v>1.0</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K14" s="19"/>
       <c r="M14" s="14"/>
       <c r="N14" s="13"/>
       <c r="O14" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15">
@@ -2563,25 +2566,25 @@
         <v>2.0</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K15" s="19"/>
     </row>
@@ -2591,32 +2594,32 @@
         <v>3.0</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K16" s="19"/>
     </row>
     <row r="19">
       <c r="A19" s="9"/>
       <c r="B19" s="16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
@@ -2633,46 +2636,46 @@
     <row r="20">
       <c r="B20" s="19"/>
       <c r="C20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="M20" s="24" t="s">
         <v>63</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="M20" s="24" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="19"/>
       <c r="C21" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E21" s="8">
         <v>426.0</v>
@@ -2681,13 +2684,13 @@
         <v>2.0</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J21" s="8">
         <v>21214.0</v>
@@ -2699,16 +2702,16 @@
         <v>79.0</v>
       </c>
       <c r="M21" s="25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="19"/>
       <c r="C22" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E22" s="8">
         <v>742.0</v>
@@ -2717,13 +2720,13 @@
         <v>7.0</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J22" s="8">
         <v>21217.0</v>
@@ -2735,16 +2738,16 @@
         <v>80.0</v>
       </c>
       <c r="M22" s="25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="20"/>
       <c r="C23" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E23" s="21">
         <v>131.0</v>
@@ -2753,13 +2756,13 @@
         <v>11.0</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J23" s="21">
         <v>21217.0</v>
@@ -2771,7 +2774,7 @@
         <v>81.0</v>
       </c>
       <c r="M23" s="26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25">
@@ -2821,39 +2824,39 @@
   <sheetData>
     <row r="2">
       <c r="B2" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J2" s="13"/>
       <c r="K2" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L2" s="14"/>
       <c r="M2" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>8</v>
@@ -2862,26 +2865,26 @@
         <v>8</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="C4" s="16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
@@ -2905,23 +2908,23 @@
         <v>15</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N5" s="19"/>
     </row>
@@ -2931,26 +2934,26 @@
         <v>1.0</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M6" s="25">
         <v>0.0</v>
@@ -2962,26 +2965,26 @@
         <v>2.0</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M7" s="25">
         <v>0.0</v>
@@ -2993,26 +2996,26 @@
         <v>3.0</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M8" s="26">
         <v>0.0</v>
@@ -3020,75 +3023,75 @@
     </row>
     <row r="11">
       <c r="B11" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E11" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="H11" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="I11" s="13" t="s">
         <v>134</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>133</v>
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M11" s="13"/>
       <c r="N11" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" s="16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
@@ -3098,51 +3101,51 @@
       <c r="K13" s="17"/>
       <c r="L13" s="22"/>
       <c r="M13" s="17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N13" s="23"/>
     </row>
     <row r="14">
       <c r="C14" s="19"/>
       <c r="D14" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N14" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" s="19"/>
       <c r="D15" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F15" s="8">
         <v>426.0</v>
@@ -3151,20 +3154,20 @@
         <v>2.0</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L15" s="8">
         <v>21214.0</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N15" s="25">
         <v>79.0</v>
@@ -3173,10 +3176,10 @@
     <row r="16">
       <c r="C16" s="19"/>
       <c r="D16" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F16" s="8">
         <v>742.0</v>
@@ -3185,20 +3188,20 @@
         <v>7.0</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L16" s="8">
         <v>21217.0</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N16" s="25">
         <v>80.0</v>
@@ -3207,10 +3210,10 @@
     <row r="17">
       <c r="C17" s="20"/>
       <c r="D17" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F17" s="21">
         <v>131.0</v>
@@ -3219,20 +3222,20 @@
         <v>11.0</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J17" s="21"/>
       <c r="K17" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L17" s="21">
         <v>21217.0</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N17" s="26">
         <v>81.0</v>
@@ -3240,13 +3243,13 @@
     </row>
     <row r="20">
       <c r="C20" s="28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
@@ -3265,7 +3268,7 @@
         <v>15</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" s="32" t="s">
         <v>20</v>
@@ -3278,16 +3281,16 @@
         <v>1.0</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I22" s="19"/>
     </row>
@@ -3297,16 +3300,16 @@
         <v>2.0</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I23" s="19"/>
     </row>
@@ -3316,65 +3319,65 @@
         <v>3.0</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G24" s="35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I24" s="19"/>
     </row>
     <row r="27">
       <c r="C27" s="28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
       <c r="H27" s="29" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I27" s="36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28">
       <c r="C28" s="31"/>
       <c r="D28" s="32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F28" s="32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G28" s="32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H28" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I28" s="37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="C29" s="31"/>
       <c r="D29" s="33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G29" s="33">
         <v>0.0</v>
@@ -3389,13 +3392,13 @@
     <row r="30">
       <c r="C30" s="31"/>
       <c r="D30" s="33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F30" s="33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G30" s="33">
         <v>0.0</v>
@@ -3410,13 +3413,13 @@
     <row r="31">
       <c r="C31" s="34"/>
       <c r="D31" s="35" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F31" s="35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G31" s="35">
         <v>0.0</v>
@@ -3430,7 +3433,7 @@
     </row>
     <row r="34">
       <c r="C34" s="28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
@@ -3439,62 +3442,62 @@
       <c r="H34" s="30"/>
       <c r="I34" s="29"/>
       <c r="J34" s="29" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K34" s="29"/>
       <c r="L34" s="36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35">
       <c r="C35" s="31"/>
       <c r="D35" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="H35" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="I35" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="E35" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="G35" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="H35" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="I35" s="32" t="s">
-        <v>62</v>
-      </c>
       <c r="J35" s="32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K35" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L35" s="37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36">
       <c r="C36" s="31"/>
       <c r="D36" s="33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E36" s="33">
         <v>2.0</v>
       </c>
       <c r="F36" s="33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G36" s="33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H36" s="33">
         <v>21214.0</v>
       </c>
       <c r="I36" s="33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J36" s="33">
         <v>1.0</v>
@@ -3509,22 +3512,22 @@
     <row r="37">
       <c r="C37" s="31"/>
       <c r="D37" s="33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E37" s="33">
         <v>7.0</v>
       </c>
       <c r="F37" s="33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H37" s="33">
         <v>21217.0</v>
       </c>
       <c r="I37" s="33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J37" s="33">
         <v>2.0</v>
@@ -3539,22 +3542,22 @@
     <row r="38">
       <c r="C38" s="34"/>
       <c r="D38" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E38" s="35">
         <v>11.0</v>
       </c>
       <c r="F38" s="35" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G38" s="35" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H38" s="35">
         <v>21217.0</v>
       </c>
       <c r="I38" s="35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J38" s="35">
         <v>3.0</v>
@@ -3568,40 +3571,40 @@
     </row>
     <row r="41">
       <c r="C41" s="28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D41" s="30"/>
       <c r="E41" s="29"/>
       <c r="F41" s="30"/>
       <c r="G41" s="36" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42">
       <c r="C42" s="31"/>
       <c r="D42" s="32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G42" s="37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43">
       <c r="C43" s="31"/>
       <c r="D43" s="33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E43" s="33">
         <v>426.0</v>
       </c>
       <c r="F43" s="33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G43" s="40">
         <v>1.0</v>
@@ -3610,31 +3613,31 @@
     <row r="44">
       <c r="C44" s="31"/>
       <c r="D44" s="33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E44" s="33">
         <v>742.0</v>
       </c>
       <c r="F44" s="33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G44" s="40">
         <v>2.0</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45">
       <c r="C45" s="34"/>
       <c r="D45" s="35" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E45" s="35">
         <v>131.0</v>
       </c>
       <c r="F45" s="35" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G45" s="41">
         <v>3.0</v>
